--- a/Database-Process.xlsx
+++ b/Database-Process.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -344,7 +345,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="L2" sqref="L2:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.4" outlineLevelCol="0"/>
@@ -360,10 +361,10 @@
     <col bestFit="1" customWidth="1" max="9" min="9" style="3" width="20.109375"/>
     <col bestFit="1" customWidth="1" max="10" min="10" style="1" width="11.44140625"/>
     <col bestFit="1" customWidth="1" max="11" min="11" style="1" width="7.6640625"/>
-    <col bestFit="1" customWidth="1" max="12" min="12" style="1" width="13.109375"/>
+    <col bestFit="1" customWidth="1" max="12" min="12" style="1" width="24.21875"/>
     <col bestFit="1" customWidth="1" max="13" min="13" style="1" width="17.44140625"/>
-    <col customWidth="1" max="19" min="14" style="1" width="11.5546875"/>
-    <col customWidth="1" max="16384" min="20" style="1" width="11.5546875"/>
+    <col customWidth="1" max="23" min="14" style="1" width="11.5546875"/>
+    <col customWidth="1" max="16384" min="24" style="1" width="11.5546875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -452,20 +453,21 @@
           <t>Demandado</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
           <t>Juridica</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
           <t>21/10/2013</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>05001233300020130169900</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="14.4" r="3">
       <c r="A3" t="n">
@@ -491,22 +493,23 @@
           <t>Demandado</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
           <t>Natural</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
           <t>31/05/2016</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>05001233300020160129700</t>
+        </is>
+      </c>
     </row>
-    <row r="4">
+    <row customHeight="1" ht="14.4" r="4">
       <c r="A4" t="n">
         <v>4</v>
       </c>
@@ -530,22 +533,23 @@
           <t>Demandado</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
           <t>Juridica</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
           <t>09/06/2012</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>05001233100020120081500</t>
+        </is>
+      </c>
     </row>
-    <row r="5">
+    <row customHeight="1" ht="14.4" r="5">
       <c r="A5" t="n">
         <v>5</v>
       </c>
@@ -569,23 +573,49 @@
           <t>Demandado</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
           <t>Natural</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
           <t>07/02/2017</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>05001333301720140046201</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1">
+        <f>293+148</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/Database-Process.xlsx
+++ b/Database-Process.xlsx
@@ -1,49 +1,120 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cesar\Proyectos\WebScraping-Cinco\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="6720" windowWidth="16788" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16788" windowHeight="6720"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Ciudad</t>
+  </si>
+  <si>
+    <t>Jurisdiccion</t>
+  </si>
+  <si>
+    <t>Nombre/Razon Social</t>
+  </si>
+  <si>
+    <t>Tipo Sujeto</t>
+  </si>
+  <si>
+    <t>Responsable</t>
+  </si>
+  <si>
+    <t>Tipo Persona</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Fecha Radicacion</t>
+  </si>
+  <si>
+    <t>Apoderado</t>
+  </si>
+  <si>
+    <t>Cedula</t>
+  </si>
+  <si>
+    <t>Nro Proceso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEDELLIN </t>
+  </si>
+  <si>
+    <t>epm</t>
+  </si>
+  <si>
+    <t>Demandado</t>
+  </si>
+  <si>
+    <t>Juridica</t>
+  </si>
+  <si>
+    <t>30/08/2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRIBUNAL ADMINISTRATIVO DE ANTIOQUIA (ORAL)                                                                                                                                                                                                                    </t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <i val="1"/>
-      <color theme="1"/>
-      <sz val="9"/>
     </font>
     <font>
+      <b/>
+      <i/>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <i val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -59,19 +130,31 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -337,285 +420,120 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L6"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="2"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="1" width="9.5546875"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="1" width="63.21875"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" style="1" width="21.6640625"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="1" width="11.5546875"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" style="1" width="12.6640625"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" style="1" width="13.109375"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" style="1" width="9.21875"/>
-    <col bestFit="1" customWidth="1" max="9" min="9" style="3" width="20.109375"/>
-    <col bestFit="1" customWidth="1" max="10" min="10" style="1" width="11.44140625"/>
-    <col bestFit="1" customWidth="1" max="11" min="11" style="1" width="7.6640625"/>
-    <col bestFit="1" customWidth="1" max="12" min="12" style="1" width="24.21875"/>
-    <col bestFit="1" customWidth="1" max="13" min="13" style="1" width="17.44140625"/>
-    <col customWidth="1" max="23" min="14" style="1" width="11.5546875"/>
-    <col customWidth="1" max="16384" min="24" style="1" width="11.5546875"/>
+    <col min="1" max="1" width="2" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="25" width="11.5546875" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Ciudad</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Jurisdiccion</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Nombre/Razon Social</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>Tipo Sujeto</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>Responsable</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>Tipo Persona</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>Nombre</t>
-        </is>
-      </c>
-      <c r="I1" s="4" t="inlineStr">
-        <is>
-          <t>Fecha Radicacion</t>
-        </is>
-      </c>
-      <c r="J1" s="2" t="inlineStr">
-        <is>
-          <t>Apoderado</t>
-        </is>
-      </c>
-      <c r="K1" s="2" t="inlineStr">
-        <is>
-          <t>Cedula</t>
-        </is>
-      </c>
-      <c r="L1" s="2" t="inlineStr">
-        <is>
-          <t>Nro Proceso</t>
-        </is>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>2</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MEDELLIN </t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TRIBUNAL ADMINISTRATIVO DE ANTIOQUIA (ESCRITURAL)                                                                                                                                                                                                              </t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>epm</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Demandado</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Juridica</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>21/10/2013</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>05001233300020130169900</t>
-        </is>
-      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="5"/>
     </row>
-    <row customHeight="1" ht="14.4" r="3">
-      <c r="A3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MEDELLIN </t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TRIBUNAL ADMINISTRATIVO DE ANTIOQUIA (ESCRITURAL)                                                                                                                                                                                                              </t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>alvaro uribe</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Demandado</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Natural</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>31/05/2016</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>05001233300020160129700</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.4" r="4">
-      <c r="A4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MEDELLIN </t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TRIBUNAL ADMINISTRATIVO DE ANTIOQUIA (ESCRITURAL)                                                                                                                                                                                                              </t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>epm</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Demandado</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Juridica</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>09/06/2012</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>05001233100020120081500</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.4" r="5">
-      <c r="A5" t="n">
-        <v>5</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MEDELLIN </t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TRIBUNAL ADMINISTRATIVO DE ANTIOQUIA (ESCRITURAL)                                                                                                                                                                                                              </t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>alvaro uribe</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Demandado</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Natural</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>07/02/2017</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>05001333301720140046201</t>
-        </is>
-      </c>
-    </row>
+    <row r="3" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1">
         <f>293+148</f>
-        <v/>
+        <v>441</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>